--- a/DS-M3/Clase 01/Homework/Proveedores.xlsx
+++ b/DS-M3/Clase 01/Homework/Proveedores.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="agencias_pami_22_11_layer_srs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
-  <si>
-    <t>departamen</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>BUENOS AIRES</t>
   </si>
@@ -34,18 +31,12 @@
     <t>ALBERTI 965</t>
   </si>
   <si>
-    <t>BRANDSEN</t>
-  </si>
-  <si>
     <t>CAMPANA</t>
   </si>
   <si>
     <t>MORENO 331</t>
   </si>
   <si>
-    <t>LANUS</t>
-  </si>
-  <si>
     <t>VALENTIN ALSINA</t>
   </si>
   <si>
@@ -67,12 +58,6 @@
     <t>LOPE DE VEGA 2102</t>
   </si>
   <si>
-    <t>COMUNA 10</t>
-  </si>
-  <si>
-    <t>CAPITAL</t>
-  </si>
-  <si>
     <t>CORDOBA</t>
   </si>
   <si>
@@ -89,9 +74,6 @@
   </si>
   <si>
     <t>RIO NEGRO</t>
-  </si>
-  <si>
-    <t>BARILOCHE</t>
   </si>
   <si>
     <t>SAN CARLOS DE BARILOCHE</t>
@@ -181,8 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,48 +645,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="32" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="33" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="34" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="29" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="35" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="33" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="21" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="22" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="23" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="24" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="34" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="39" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="37" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="38" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="41" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="39" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="30" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="31" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="32" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -762,7 +744,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -814,7 +796,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1008,19 +990,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -1028,346 +1012,300 @@
     <col min="4" max="4" width="42" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
